--- a/docs/Files/ODYM_Classifications_Master_Tutorial.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_Dimensions_Aspects" sheetId="8" r:id="rId1"/>
@@ -12,19 +12,20 @@
     <sheet name="UNITS" sheetId="13" r:id="rId3"/>
     <sheet name="Time_Discrete_Years" sheetId="2" r:id="rId4"/>
     <sheet name="Chemical_Elements" sheetId="4" r:id="rId5"/>
-    <sheet name="Engineering_materials_m2" sheetId="6" r:id="rId6"/>
-    <sheet name="Manufacturing_i3" sheetId="17" r:id="rId7"/>
-    <sheet name="Products_m3" sheetId="5" r:id="rId8"/>
-    <sheet name="Use_Phase_i4" sheetId="18" r:id="rId9"/>
-    <sheet name="Waste_Mgt_Industries_i5" sheetId="10" r:id="rId10"/>
-    <sheet name="Waste_Scrap_m5" sheetId="7" r:id="rId11"/>
+    <sheet name="130_Countries" sheetId="19" r:id="rId6"/>
+    <sheet name="Engineering_Materials_m2" sheetId="6" r:id="rId7"/>
+    <sheet name="Manufacturing_i3" sheetId="17" r:id="rId8"/>
+    <sheet name="Products_m3" sheetId="5" r:id="rId9"/>
+    <sheet name="Use_Phase_i4" sheetId="18" r:id="rId10"/>
+    <sheet name="Waste_Mgt_Industries_i5" sheetId="10" r:id="rId11"/>
+    <sheet name="Waste_Scrap_m5" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="654">
   <si>
     <t>Name</t>
   </si>
@@ -1442,12 +1443,6 @@
     <t>Al old sheet and construction waste</t>
   </si>
   <si>
-    <t>Shredder Light Fraction (SLF)</t>
-  </si>
-  <si>
-    <t>Automobile Shredder Residue (ASR)</t>
-  </si>
-  <si>
     <t>Construction waste, insulation</t>
   </si>
   <si>
@@ -1550,17 +1545,455 @@
     <t>c5892284-f80d-421d-9809-61d74c4c09a5</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
+    <t>Manufacturing of Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>Commercial vehicles</t>
+  </si>
+  <si>
+    <t>Molybdene</t>
+  </si>
+  <si>
+    <t>f34c733d-25d5-4590-9d95-8b4f7d50582f</t>
+  </si>
+  <si>
+    <t>130_Countries</t>
+  </si>
+  <si>
+    <t>130 countries of the world, selected by good availability of vehicle sales and fleet statistics</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland and Liechtenstein</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Macedonia, FYR</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Paladium</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Ceramics</t>
+  </si>
+  <si>
+    <t>Carbon black</t>
+  </si>
+  <si>
+    <t>Cromium</t>
+  </si>
+  <si>
+    <t>Use phase</t>
+  </si>
+  <si>
+    <t>Vehicle dismantling and shredding</t>
+  </si>
+  <si>
+    <t>Plastic waste</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Shredder Light Fraction (SLF)/Automobile Shredder Residue (ASR)</t>
+  </si>
+  <si>
+    <t>Electronic waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1612,13 +2045,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1662,7 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1746,7 +2172,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2058,7 +2483,7 @@
   <dimension ref="B4:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2494,7 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2082,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -2090,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -2226,10 +2651,380 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43028</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43028</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,10 +3130,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>43028</v>
+        <v>43467</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2353,7 +3148,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -2366,7 +3161,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -2383,7 +3178,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2391,7 +3186,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2399,7 +3194,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -2407,7 +3202,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -2415,7 +3210,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -2423,7 +3218,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -2431,7 +3226,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -2439,7 +3234,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -2447,10 +3242,18 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E19">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2458,18 +3261,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2578,7 +3381,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>43028</v>
+        <v>43102</v>
       </c>
       <c r="D7" t="s">
         <v>467</v>
@@ -2718,7 +3521,7 @@
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>472</v>
+        <v>652</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -2729,7 +3532,7 @@
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>473</v>
+        <v>653</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -2740,7 +3543,7 @@
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -2750,7 +3553,7 @@
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -2760,7 +3563,7 @@
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -2778,7 +3581,7 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -2796,7 +3599,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -2805,7 +3608,7 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -2813,7 +3616,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -2821,7 +3624,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -2829,7 +3632,7 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -2837,7 +3640,7 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -2845,7 +3648,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -2857,6 +3660,14 @@
       </c>
       <c r="E34">
         <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>650</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2871,11 +3682,11 @@
   </sheetPr>
   <dimension ref="A1:AL1311"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="I51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="K140" sqref="K11:K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,8 +3700,9 @@
     <col min="7" max="7" width="51" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51" style="7" customWidth="1"/>
     <col min="9" max="9" width="36.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="7"/>
+    <col min="10" max="10" width="45.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.44140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2909,7 +3721,7 @@
         <v>Chemical_Elements</v>
       </c>
       <c r="E1" s="6" t="str">
-        <f>Engineering_materials_m2!B1</f>
+        <f>Engineering_Materials_m2!B1</f>
         <v>Engineering_Materials_m2</v>
       </c>
       <c r="F1" s="6" t="str">
@@ -2932,7 +3744,10 @@
         <f>Waste_Scrap_m5!B1</f>
         <v>Waste_Scrap_m5</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="6" t="str">
+        <f>'130_Countries'!B1</f>
+        <v>130_Countries</v>
+      </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -2977,7 +3792,7 @@
         <v>Element</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>Engineering_materials_m2!B2</f>
+        <f>Engineering_Materials_m2!B2</f>
         <v>Material</v>
       </c>
       <c r="F2" s="7" t="str">
@@ -3000,6 +3815,10 @@
         <f>Waste_Scrap_m5!B2</f>
         <v>Material</v>
       </c>
+      <c r="K2" s="7" t="str">
+        <f>'130_Countries'!B2</f>
+        <v>Region</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3017,7 +3836,7 @@
         <v>100 first chemical elements, plus total</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>Engineering_materials_m2!B3</f>
+        <f>Engineering_Materials_m2!B3</f>
         <v>Lists of engineering materials (in the narrower sense), output of engineering material production industries.</v>
       </c>
       <c r="F3" s="7" t="str">
@@ -3040,6 +3859,10 @@
         <f>Waste_Scrap_m5!B3</f>
         <v>Waste and scrap groups list</v>
       </c>
+      <c r="K3" s="7" t="str">
+        <f>'130_Countries'!B3</f>
+        <v>130 countries of the world, selected by good availability of vehicle sales and fleet statistics</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -3057,7 +3880,7 @@
         <v>None</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>Engineering_materials_m2!B4</f>
+        <f>Engineering_Materials_m2!B4</f>
         <v>None</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -3080,6 +3903,10 @@
         <f>Waste_Scrap_m5!B4</f>
         <v>None</v>
       </c>
+      <c r="K4" s="7" t="str">
+        <f>'130_Countries'!B4</f>
+        <v>None</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3097,7 +3924,7 @@
         <v>ec0551bc-69f4-42fe-9725-65ed578ed92f</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>Engineering_materials_m2!B5</f>
+        <f>Engineering_Materials_m2!B5</f>
         <v>0d06154b-ecf9-4e98-9379-8f030203ec00</v>
       </c>
       <c r="F5" s="7" t="str">
@@ -3120,6 +3947,10 @@
         <f>Waste_Scrap_m5!B5</f>
         <v>6ac3bb66-301f-4995-8480-68b266420a2a</v>
       </c>
+      <c r="K5" s="7" t="str">
+        <f>'130_Countries'!B5</f>
+        <v>f34c733d-25d5-4590-9d95-8b4f7d50582f</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3135,7 +3966,7 @@
         <v>43028</v>
       </c>
       <c r="E6" s="38">
-        <f>Engineering_materials_m2!B6</f>
+        <f>Engineering_Materials_m2!B6</f>
         <v>43057</v>
       </c>
       <c r="F6" s="38">
@@ -3153,10 +3984,14 @@
         <f>Waste_Mgt_Industries_i5!B6</f>
         <v>43028</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="38">
+        <f>Waste_Scrap_m5!B6</f>
         <v>43028</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="38">
+        <f>'130_Countries'!B6</f>
+        <v>43461</v>
+      </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -3195,28 +4030,29 @@
         <v>43028</v>
       </c>
       <c r="E7" s="38">
-        <f>Engineering_materials_m2!B7</f>
-        <v>43057</v>
+        <v>43462</v>
       </c>
       <c r="F7" s="38">
-        <f>Manufacturing_i3!B7</f>
-        <v>43058</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43028</v>
+        <v>43462</v>
+      </c>
+      <c r="G7" s="38">
+        <v>43462</v>
       </c>
       <c r="H7" s="38">
-        <f>Use_Phase_i4!B7</f>
-        <v>43028</v>
+        <v>43462</v>
       </c>
       <c r="I7" s="38">
         <f>Waste_Mgt_Industries_i5!B7</f>
-        <v>43028</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43028</v>
-      </c>
-      <c r="K7" s="38"/>
+        <v>43467</v>
+      </c>
+      <c r="J7" s="38">
+        <f>Waste_Scrap_m5!B7</f>
+        <v>43102</v>
+      </c>
+      <c r="K7" s="38">
+        <f>'130_Countries'!B7</f>
+        <v>43461</v>
+      </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -3245,17 +4081,21 @@
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>509</v>
+      <c r="C8" s="7" t="str">
+        <f>Time_Discrete_Years!B8</f>
+        <v>Stefan Pauliuk</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>Chemical_Elements!B8</f>
+        <v>Stefan Pauliuk</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>Engineering_Materials_m2!B8</f>
+        <v>Stefan Pauliuk</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>Manufacturing_i3!B8</f>
+        <v>Stefan Pauliuk</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>Products_m3!B8</f>
@@ -3273,6 +4113,10 @@
         <f>Waste_Scrap_m5!B8</f>
         <v>Stefan Pauliuk</v>
       </c>
+      <c r="K8" s="7" t="str">
+        <f>'130_Countries'!B8</f>
+        <v>Stefan Pauliuk</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -3287,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <f>Engineering_materials_m2!B9</f>
+        <f>Engineering_Materials_m2!B9</f>
         <v>0</v>
       </c>
       <c r="F9" s="7">
@@ -3310,6 +4154,10 @@
         <f>Waste_Scrap_m5!B9</f>
         <v>0</v>
       </c>
+      <c r="K9" s="7">
+        <f>'130_Countries'!B9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -3332,7 +4180,7 @@
         <v>All</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>Engineering_materials_m2!D2</f>
+        <f>Engineering_Materials_m2!D2</f>
         <v>Construction grade steel</v>
       </c>
       <c r="F11" s="7" t="str">
@@ -3355,6 +4203,10 @@
         <f>Waste_Scrap_m5!D2</f>
         <v>Heavy melt, plate, and structural steel scrap</v>
       </c>
+      <c r="K11" s="7" t="str">
+        <f>'130_Countries'!D2</f>
+        <v>Austria</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -3369,7 +4221,7 @@
         <v>H</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>Engineering_materials_m2!D3</f>
+        <f>Engineering_Materials_m2!D3</f>
         <v>Automotive steel</v>
       </c>
       <c r="F12" s="7" t="str">
@@ -3392,6 +4244,10 @@
         <f>Waste_Scrap_m5!D3</f>
         <v>Steel shred</v>
       </c>
+      <c r="K12" s="7" t="str">
+        <f>'130_Countries'!D3</f>
+        <v>Belgium</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -3406,7 +4262,7 @@
         <v>He</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>Engineering_materials_m2!D4</f>
+        <f>Engineering_Materials_m2!D4</f>
         <v>stainless steel</v>
       </c>
       <c r="F13" s="7" t="str">
@@ -3429,6 +4285,10 @@
         <f>Waste_Scrap_m5!D4</f>
         <v>Stainless steel scrap</v>
       </c>
+      <c r="K13" s="7" t="str">
+        <f>'130_Countries'!D4</f>
+        <v>Denmark</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -3443,7 +4303,7 @@
         <v>Li</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>Engineering_materials_m2!D5</f>
+        <f>Engineering_Materials_m2!D5</f>
         <v>Cast iron</v>
       </c>
       <c r="F14" s="7" t="str">
@@ -3466,6 +4326,10 @@
         <f>Waste_Scrap_m5!D5</f>
         <v>Steel casting scrap</v>
       </c>
+      <c r="K14" s="7" t="str">
+        <f>'130_Countries'!D5</f>
+        <v>Finland</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -3480,7 +4344,7 @@
         <v>Be</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>Engineering_materials_m2!D6</f>
+        <f>Engineering_Materials_m2!D6</f>
         <v>Ferrocromium</v>
       </c>
       <c r="F15" s="7" t="str">
@@ -3503,6 +4367,10 @@
         <f>Waste_Scrap_m5!D6</f>
         <v>Turnings and busheling fabrication steel scrap</v>
       </c>
+      <c r="K15" s="7" t="str">
+        <f>'130_Countries'!D6</f>
+        <v>France</v>
+      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -3517,7 +4385,7 @@
         <v>B</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>Engineering_materials_m2!D7</f>
+        <f>Engineering_Materials_m2!D7</f>
         <v>Ferromanganese</v>
       </c>
       <c r="F16" s="7" t="str">
@@ -3540,8 +4408,12 @@
         <f>Waste_Scrap_m5!D7</f>
         <v>Al extrusion scrap, auto rims, clean</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="7" t="str">
+        <f>'130_Countries'!D7</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -3554,7 +4426,7 @@
         <v>C</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>Engineering_materials_m2!D8</f>
+        <f>Engineering_Materials_m2!D8</f>
         <v>Ferronickel</v>
       </c>
       <c r="F17" s="7" t="str">
@@ -3577,8 +4449,12 @@
         <f>Waste_Scrap_m5!D8</f>
         <v>Al extrusion scrap, auto rims, dirty</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="7" t="str">
+        <f>'130_Countries'!D8</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>7</v>
       </c>
@@ -3591,7 +4467,7 @@
         <v>N</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>Engineering_materials_m2!D9</f>
+        <f>Engineering_Materials_m2!D9</f>
         <v>Wrought Al</v>
       </c>
       <c r="F18" s="7" t="str">
@@ -3614,8 +4490,12 @@
         <f>Waste_Scrap_m5!D9</f>
         <v>Al old sheet and construction waste</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="7" t="str">
+        <f>'130_Countries'!D9</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8</v>
       </c>
@@ -3628,7 +4508,7 @@
         <v>O</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>Engineering_materials_m2!D10</f>
+        <f>Engineering_Materials_m2!D10</f>
         <v>Cast Al</v>
       </c>
       <c r="F19" s="7" t="str">
@@ -3651,8 +4531,12 @@
         <f>Waste_Scrap_m5!D10</f>
         <v>Al old cast</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="7" t="str">
+        <f>'130_Countries'!D10</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -3665,7 +4549,7 @@
         <v>F</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>Engineering_materials_m2!D11</f>
+        <f>Engineering_Materials_m2!D11</f>
         <v>Copper electric grade</v>
       </c>
       <c r="F20" s="7" t="str">
@@ -3688,8 +4572,12 @@
         <f>Waste_Scrap_m5!D11</f>
         <v>Al turnings (new)</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="7" t="str">
+        <f>'130_Countries'!D11</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>10</v>
       </c>
@@ -3702,7 +4590,7 @@
         <v>Ne</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>Engineering_materials_m2!D12</f>
+        <f>Engineering_Materials_m2!D12</f>
         <v>Copper lower grade</v>
       </c>
       <c r="F21" s="7" t="str">
@@ -3725,8 +4613,12 @@
         <f>Waste_Scrap_m5!D12</f>
         <v>Bare bright copper scrap (new)</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="7" t="str">
+        <f>'130_Countries'!D12</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>11</v>
       </c>
@@ -3739,7 +4631,7 @@
         <v>Na</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>Engineering_materials_m2!D13</f>
+        <f>Engineering_Materials_m2!D13</f>
         <v>Thermoplastics</v>
       </c>
       <c r="F22" s="7" t="str">
@@ -3762,8 +4654,12 @@
         <f>Waste_Scrap_m5!D13</f>
         <v>#1 Copper scrap</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="7" t="str">
+        <f>'130_Countries'!D13</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>12</v>
       </c>
@@ -3776,7 +4672,7 @@
         <v>Mg</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>Engineering_materials_m2!D14</f>
+        <f>Engineering_Materials_m2!D14</f>
         <v>Thermosetting plastics</v>
       </c>
       <c r="F23" s="7" t="str">
@@ -3799,8 +4695,12 @@
         <f>Waste_Scrap_m5!D14</f>
         <v>#2 Copper scrap</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="7" t="str">
+        <f>'130_Countries'!D14</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>13</v>
       </c>
@@ -3813,7 +4713,7 @@
         <v>Al</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>Engineering_materials_m2!D15</f>
+        <f>Engineering_Materials_m2!D15</f>
         <v>Paper</v>
       </c>
       <c r="F24" s="7" t="str">
@@ -3836,8 +4736,12 @@
         <f>Waste_Scrap_m5!D15</f>
         <v>#3 Copper scrap</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="7" t="str">
+        <f>'130_Countries'!D15</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>14</v>
       </c>
@@ -3850,7 +4754,7 @@
         <v>Si</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>Engineering_materials_m2!D16</f>
+        <f>Engineering_Materials_m2!D16</f>
         <v>Cardboard</v>
       </c>
       <c r="F25" s="7" t="str">
@@ -3873,8 +4777,12 @@
         <f>Waste_Scrap_m5!D16</f>
         <v>Copper wire scrap</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="7" t="str">
+        <f>'130_Countries'!D16</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>15</v>
       </c>
@@ -3887,7 +4795,7 @@
         <v>P</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>Engineering_materials_m2!D17</f>
+        <f>Engineering_Materials_m2!D17</f>
         <v>Cement</v>
       </c>
       <c r="F26" s="7" t="str">
@@ -3910,8 +4818,12 @@
         <f>Waste_Scrap_m5!D17</f>
         <v>Lead acid batteries</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="7" t="str">
+        <f>'130_Countries'!D17</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>16</v>
       </c>
@@ -3924,8 +4836,12 @@
         <v>S</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>Engineering_materials_m2!D18</f>
+        <f>Engineering_Materials_m2!D18</f>
         <v>Massive timber products</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>Manufacturing_i3!D18</f>
+        <v>Manufacturing of Commercial Vehicles</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>Products_m3!D18</f>
@@ -3943,8 +4859,12 @@
         <f>Waste_Scrap_m5!D18</f>
         <v>Li-Ion batteries</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="7" t="str">
+        <f>'130_Countries'!D18</f>
+        <v>Switzerland and Liechtenstein</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>17</v>
       </c>
@@ -3957,7 +4877,7 @@
         <v>Cl</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>Engineering_materials_m2!D19</f>
+        <f>Engineering_Materials_m2!D19</f>
         <v>Gluelam timber products</v>
       </c>
       <c r="G28" s="7" t="str">
@@ -3974,10 +4894,14 @@
       </c>
       <c r="J28" s="7" t="str">
         <f>Waste_Scrap_m5!D19</f>
-        <v>Shredder Light Fraction (SLF)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Shredder Light Fraction (SLF)/Automobile Shredder Residue (ASR)</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f>'130_Countries'!D19</f>
+        <v>United Kingdom</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>18</v>
       </c>
@@ -3990,7 +4914,7 @@
         <v>Ar</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>Engineering_materials_m2!D20</f>
+        <f>Engineering_Materials_m2!D20</f>
         <v>Strand and particle timber products</v>
       </c>
       <c r="G29" s="7" t="str">
@@ -4001,12 +4925,20 @@
         <f>Use_Phase_i4!D20</f>
         <v>Electricity grid</v>
       </c>
+      <c r="I29" s="7" t="str">
+        <f>Waste_Mgt_Industries_i5!D20</f>
+        <v>Vehicle dismantling and shredding</v>
+      </c>
       <c r="J29" s="7" t="str">
         <f>Waste_Scrap_m5!D20</f>
-        <v>Automobile Shredder Residue (ASR)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Electronic waste</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f>'130_Countries'!D20</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>19</v>
       </c>
@@ -4019,7 +4951,7 @@
         <v>K</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>Engineering_materials_m2!D21</f>
+        <f>Engineering_Materials_m2!D21</f>
         <v>Zinc</v>
       </c>
       <c r="G30" s="7" t="str">
@@ -4034,8 +4966,12 @@
         <f>Waste_Scrap_m5!D21</f>
         <v>Construction waste, insulation</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="7" t="str">
+        <f>'130_Countries'!D21</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>20</v>
       </c>
@@ -4047,6 +4983,10 @@
         <f>Chemical_Elements!D22</f>
         <v>Ca</v>
       </c>
+      <c r="E31" s="7" t="str">
+        <f>Engineering_Materials_m2!D22</f>
+        <v>Cromium</v>
+      </c>
       <c r="G31" s="7" t="str">
         <f>Products_m3!D22</f>
         <v>Pipelines</v>
@@ -4059,8 +4999,12 @@
         <f>Waste_Scrap_m5!D22</f>
         <v>Construction waste, concrete, bricks, tiles, ceramics</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="7" t="str">
+        <f>'130_Countries'!D22</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>21</v>
       </c>
@@ -4072,6 +5016,10 @@
         <f>Chemical_Elements!D23</f>
         <v>Sc</v>
       </c>
+      <c r="E32" s="7" t="str">
+        <f>Engineering_Materials_m2!D23</f>
+        <v>Manganese</v>
+      </c>
       <c r="G32" s="7" t="str">
         <f>Products_m3!D23</f>
         <v>Household appliances large (white goods)</v>
@@ -4084,8 +5032,12 @@
         <f>Waste_Scrap_m5!D23</f>
         <v>Construction waste, bituminous mixtures, coal tar and tar</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="7" t="str">
+        <f>'130_Countries'!D23</f>
+        <v>Czech Republic</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>22</v>
       </c>
@@ -4097,6 +5049,10 @@
         <f>Chemical_Elements!D24</f>
         <v>Ti</v>
       </c>
+      <c r="E33" s="7" t="str">
+        <f>Engineering_Materials_m2!D24</f>
+        <v>Molybdene</v>
+      </c>
       <c r="G33" s="7" t="str">
         <f>Products_m3!D24</f>
         <v>Household appliances medium (brown goods)</v>
@@ -4109,8 +5065,12 @@
         <f>Waste_Scrap_m5!D24</f>
         <v>MSW</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="7" t="str">
+        <f>'130_Countries'!D24</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>23</v>
       </c>
@@ -4122,6 +5082,10 @@
         <f>Chemical_Elements!D25</f>
         <v>V</v>
       </c>
+      <c r="E34" s="7" t="str">
+        <f>Engineering_Materials_m2!D25</f>
+        <v>Vanadium</v>
+      </c>
       <c r="G34" s="7" t="str">
         <f>Products_m3!D25</f>
         <v>Household appliances small</v>
@@ -4134,8 +5098,12 @@
         <f>Waste_Scrap_m5!D25</f>
         <v>Glass</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="7" t="str">
+        <f>'130_Countries'!D25</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>24</v>
       </c>
@@ -4147,6 +5115,10 @@
         <f>Chemical_Elements!D26</f>
         <v>Cr</v>
       </c>
+      <c r="E35" s="7" t="str">
+        <f>Engineering_Materials_m2!D26</f>
+        <v>Cobalt</v>
+      </c>
       <c r="G35" s="7" t="str">
         <f>Products_m3!D26</f>
         <v>Electronic communication and entertainment devices</v>
@@ -4159,8 +5131,12 @@
         <f>Waste_Scrap_m5!D26</f>
         <v>Waste paper</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="7" t="str">
+        <f>'130_Countries'!D26</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>25</v>
       </c>
@@ -4172,6 +5148,10 @@
         <f>Chemical_Elements!D27</f>
         <v>Mn</v>
       </c>
+      <c r="E36" s="7" t="str">
+        <f>Engineering_Materials_m2!D27</f>
+        <v>Neodymium</v>
+      </c>
       <c r="G36" s="7" t="str">
         <f>Products_m3!D27</f>
         <v>Commercial and industrial appliances large (white goods)</v>
@@ -4184,8 +5164,12 @@
         <f>Waste_Scrap_m5!D27</f>
         <v>Waste cardboard</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="7" t="str">
+        <f>'130_Countries'!D27</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>26</v>
       </c>
@@ -4197,6 +5181,10 @@
         <f>Chemical_Elements!D28</f>
         <v>Fe</v>
       </c>
+      <c r="E37" s="7" t="str">
+        <f>Engineering_Materials_m2!D28</f>
+        <v>Tantalum</v>
+      </c>
       <c r="G37" s="7" t="str">
         <f>Products_m3!D28</f>
         <v>Commercial and industrial appliances medium (brown goods)</v>
@@ -4209,8 +5197,12 @@
         <f>Waste_Scrap_m5!D28</f>
         <v>Thermoplastic waste</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="7" t="str">
+        <f>'130_Countries'!D28</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>27</v>
       </c>
@@ -4222,6 +5214,10 @@
         <f>Chemical_Elements!D29</f>
         <v>Co</v>
       </c>
+      <c r="E38" s="7" t="str">
+        <f>Engineering_Materials_m2!D29</f>
+        <v>Aluminium</v>
+      </c>
       <c r="G38" s="7" t="str">
         <f>Products_m3!D29</f>
         <v>Commercial and industrial appliances small</v>
@@ -4234,8 +5230,12 @@
         <f>Waste_Scrap_m5!D29</f>
         <v>Thermosetting plastic waste</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="7" t="str">
+        <f>'130_Countries'!D29</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>28</v>
       </c>
@@ -4247,6 +5247,10 @@
         <f>Chemical_Elements!D30</f>
         <v>Ni</v>
       </c>
+      <c r="E39" s="7" t="str">
+        <f>Engineering_Materials_m2!D30</f>
+        <v>Magnesium</v>
+      </c>
       <c r="G39" s="7" t="str">
         <f>Products_m3!D30</f>
         <v>Commercial and industrial electronic communication and entertainment devices</v>
@@ -4259,8 +5263,12 @@
         <f>Waste_Scrap_m5!D30</f>
         <v>Waste of natural, untreated wood</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="7" t="str">
+        <f>'130_Countries'!D30</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>29</v>
       </c>
@@ -4272,6 +5280,10 @@
         <f>Chemical_Elements!D31</f>
         <v>Cu</v>
       </c>
+      <c r="E40" s="7" t="str">
+        <f>Engineering_Materials_m2!D31</f>
+        <v>Lead</v>
+      </c>
       <c r="G40" s="7" t="str">
         <f>Products_m3!D31</f>
         <v>Other consumer goods</v>
@@ -4284,8 +5296,12 @@
         <f>Waste_Scrap_m5!D31</f>
         <v>Scrap wood</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="7" t="str">
+        <f>'130_Countries'!D31</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>30</v>
       </c>
@@ -4297,13 +5313,28 @@
         <f>Chemical_Elements!D32</f>
         <v>Zn</v>
       </c>
-      <c r="G41" s="39"/>
+      <c r="E41" s="7" t="str">
+        <f>Engineering_Materials_m2!D32</f>
+        <v>Platinum</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>Products_m3!D32</f>
+        <v>Commercial vehicles</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>Use_Phase_i4!D32</f>
+        <v>Commercial vehicles</v>
+      </c>
       <c r="J41" s="7" t="str">
         <f>Waste_Scrap_m5!D32</f>
         <v>Used wood</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="7" t="str">
+        <f>'130_Countries'!D32</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>31</v>
       </c>
@@ -4315,12 +5346,24 @@
         <f>Chemical_Elements!D33</f>
         <v>Ga</v>
       </c>
+      <c r="E42" s="7" t="str">
+        <f>Engineering_Materials_m2!D33</f>
+        <v>Paladium</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>Use_Phase_i4!D33</f>
+        <v>Use phase</v>
+      </c>
       <c r="J42" s="7" t="str">
         <f>Waste_Scrap_m5!D33</f>
         <v>Hazardous wood waste</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="7" t="str">
+        <f>'130_Countries'!D33</f>
+        <v>Albania</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>32</v>
       </c>
@@ -4332,12 +5375,20 @@
         <f>Chemical_Elements!D34</f>
         <v>Ge</v>
       </c>
+      <c r="E43" s="7" t="str">
+        <f>Engineering_Materials_m2!D34</f>
+        <v>Rhodium</v>
+      </c>
       <c r="J43" s="7" t="str">
         <f>Waste_Scrap_m5!D34</f>
         <v>Other waste</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="7" t="str">
+        <f>'130_Countries'!D34</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>33</v>
       </c>
@@ -4349,8 +5400,20 @@
         <f>Chemical_Elements!D35</f>
         <v>As</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="7" t="str">
+        <f>Engineering_Materials_m2!D35</f>
+        <v>Arsenic</v>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f>Waste_Scrap_m5!D35</f>
+        <v>Plastic waste</v>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f>'130_Countries'!D35</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>34</v>
       </c>
@@ -4362,8 +5425,16 @@
         <f>Chemical_Elements!D36</f>
         <v>Se</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E45" s="7" t="str">
+        <f>Engineering_Materials_m2!D36</f>
+        <v>Antimony</v>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f>'130_Countries'!D36</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>35</v>
       </c>
@@ -4375,8 +5446,16 @@
         <f>Chemical_Elements!D37</f>
         <v>Br</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="str">
+        <f>Engineering_Materials_m2!D37</f>
+        <v>Plastics</v>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f>'130_Countries'!D37</f>
+        <v>Macedonia, FYR</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>36</v>
       </c>
@@ -4388,8 +5467,16 @@
         <f>Chemical_Elements!D38</f>
         <v>Kr</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E47" s="7" t="str">
+        <f>Engineering_Materials_m2!D38</f>
+        <v>Rubber</v>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f>'130_Countries'!D38</f>
+        <v>Moldova</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>37</v>
       </c>
@@ -4401,8 +5488,16 @@
         <f>Chemical_Elements!D39</f>
         <v>Rb</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="str">
+        <f>Engineering_Materials_m2!D39</f>
+        <v>Glass</v>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f>'130_Countries'!D39</f>
+        <v>Russia</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>38</v>
       </c>
@@ -4414,8 +5509,16 @@
         <f>Chemical_Elements!D40</f>
         <v>Sr</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="7" t="str">
+        <f>Engineering_Materials_m2!D40</f>
+        <v>Ceramics</v>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f>'130_Countries'!D40</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>39</v>
       </c>
@@ -4427,8 +5530,16 @@
         <f>Chemical_Elements!D41</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="7" t="str">
+        <f>Engineering_Materials_m2!D41</f>
+        <v>Silicon</v>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f>'130_Countries'!D41</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>40</v>
       </c>
@@ -4440,8 +5551,16 @@
         <f>Chemical_Elements!D42</f>
         <v>Zr</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="7" t="str">
+        <f>Engineering_Materials_m2!D42</f>
+        <v>Carbon black</v>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f>'130_Countries'!D42</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>41</v>
       </c>
@@ -4453,8 +5572,12 @@
         <f>Chemical_Elements!D43</f>
         <v>Nb</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K52" s="7" t="str">
+        <f>'130_Countries'!D43</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>42</v>
       </c>
@@ -4466,8 +5589,12 @@
         <f>Chemical_Elements!D44</f>
         <v>Mo</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K53" s="7" t="str">
+        <f>'130_Countries'!D44</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43</v>
       </c>
@@ -4479,8 +5606,12 @@
         <f>Chemical_Elements!D45</f>
         <v>Tc</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K54" s="7" t="str">
+        <f>'130_Countries'!D45</f>
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>44</v>
       </c>
@@ -4492,8 +5623,12 @@
         <f>Chemical_Elements!D46</f>
         <v>Ru</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K55" s="7" t="str">
+        <f>'130_Countries'!D46</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>45</v>
       </c>
@@ -4505,8 +5640,12 @@
         <f>Chemical_Elements!D47</f>
         <v>Rh</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K56" s="7" t="str">
+        <f>'130_Countries'!D47</f>
+        <v>Bahamas, The</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>46</v>
       </c>
@@ -4518,8 +5657,12 @@
         <f>Chemical_Elements!D48</f>
         <v>Pd</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K57" s="7" t="str">
+        <f>'130_Countries'!D48</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>47</v>
       </c>
@@ -4531,8 +5674,12 @@
         <f>Chemical_Elements!D49</f>
         <v>Ag</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K58" s="7" t="str">
+        <f>'130_Countries'!D49</f>
+        <v>Bolivia</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>48</v>
       </c>
@@ -4544,8 +5691,12 @@
         <f>Chemical_Elements!D50</f>
         <v>Cd</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K59" s="7" t="str">
+        <f>'130_Countries'!D50</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>49</v>
       </c>
@@ -4557,8 +5708,12 @@
         <f>Chemical_Elements!D51</f>
         <v>In</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K60" s="7" t="str">
+        <f>'130_Countries'!D51</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>50</v>
       </c>
@@ -4570,8 +5725,12 @@
         <f>Chemical_Elements!D52</f>
         <v>Sn</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K61" s="7" t="str">
+        <f>'130_Countries'!D52</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>51</v>
       </c>
@@ -4583,8 +5742,12 @@
         <f>Chemical_Elements!D53</f>
         <v>Sb</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K62" s="7" t="str">
+        <f>'130_Countries'!D53</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>52</v>
       </c>
@@ -4596,8 +5759,12 @@
         <f>Chemical_Elements!D54</f>
         <v>Te</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K63" s="7" t="str">
+        <f>'130_Countries'!D54</f>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>53</v>
       </c>
@@ -4609,8 +5776,12 @@
         <f>Chemical_Elements!D55</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K64" s="7" t="str">
+        <f>'130_Countries'!D55</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>54</v>
       </c>
@@ -4622,8 +5793,12 @@
         <f>Chemical_Elements!D56</f>
         <v>Xe</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K65" s="7" t="str">
+        <f>'130_Countries'!D56</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>55</v>
       </c>
@@ -4635,8 +5810,12 @@
         <f>Chemical_Elements!D57</f>
         <v>Cs</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K66" s="7" t="str">
+        <f>'130_Countries'!D57</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>56</v>
       </c>
@@ -4648,8 +5827,12 @@
         <f>Chemical_Elements!D58</f>
         <v>Ba</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K67" s="7" t="str">
+        <f>'130_Countries'!D58</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>57</v>
       </c>
@@ -4661,8 +5844,12 @@
         <f>Chemical_Elements!D59</f>
         <v>La</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K68" s="7" t="str">
+        <f>'130_Countries'!D59</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>58</v>
       </c>
@@ -4674,8 +5861,12 @@
         <f>Chemical_Elements!D60</f>
         <v>Ce</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K69" s="7" t="str">
+        <f>'130_Countries'!D60</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>59</v>
       </c>
@@ -4687,8 +5878,12 @@
         <f>Chemical_Elements!D61</f>
         <v>Pr</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K70" s="7" t="str">
+        <f>'130_Countries'!D61</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>60</v>
       </c>
@@ -4700,8 +5895,12 @@
         <f>Chemical_Elements!D62</f>
         <v>Nd</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K71" s="7" t="str">
+        <f>'130_Countries'!D62</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>61</v>
       </c>
@@ -4713,8 +5912,12 @@
         <f>Chemical_Elements!D63</f>
         <v>Pm</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K72" s="7" t="str">
+        <f>'130_Countries'!D63</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>62</v>
       </c>
@@ -4726,8 +5929,12 @@
         <f>Chemical_Elements!D64</f>
         <v>Sm</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K73" s="7" t="str">
+        <f>'130_Countries'!D64</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>63</v>
       </c>
@@ -4739,8 +5946,12 @@
         <f>Chemical_Elements!D65</f>
         <v>Eu</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K74" s="7" t="str">
+        <f>'130_Countries'!D65</f>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>64</v>
       </c>
@@ -4752,8 +5963,12 @@
         <f>Chemical_Elements!D66</f>
         <v>Gd</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K75" s="7" t="str">
+        <f>'130_Countries'!D66</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>65</v>
       </c>
@@ -4765,8 +5980,12 @@
         <f>Chemical_Elements!D67</f>
         <v>Tb</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K76" s="7" t="str">
+        <f>'130_Countries'!D67</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>66</v>
       </c>
@@ -4778,8 +5997,12 @@
         <f>Chemical_Elements!D68</f>
         <v>Dy</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K77" s="7" t="str">
+        <f>'130_Countries'!D68</f>
+        <v>Venezuela, RB</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>67</v>
       </c>
@@ -4791,8 +6014,12 @@
         <f>Chemical_Elements!D69</f>
         <v>Ho</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K78" s="7" t="str">
+        <f>'130_Countries'!D69</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>68</v>
       </c>
@@ -4804,8 +6031,12 @@
         <f>Chemical_Elements!D70</f>
         <v>Er</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K79" s="7" t="str">
+        <f>'130_Countries'!D70</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>69</v>
       </c>
@@ -4817,8 +6048,12 @@
         <f>Chemical_Elements!D71</f>
         <v>Tm</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K80" s="7" t="str">
+        <f>'130_Countries'!D71</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>70</v>
       </c>
@@ -4830,8 +6065,12 @@
         <f>Chemical_Elements!D72</f>
         <v>Yb</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K81" s="7" t="str">
+        <f>'130_Countries'!D72</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>71</v>
       </c>
@@ -4843,8 +6082,12 @@
         <f>Chemical_Elements!D73</f>
         <v>Lu</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K82" s="7" t="str">
+        <f>'130_Countries'!D73</f>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>72</v>
       </c>
@@ -4856,8 +6099,12 @@
         <f>Chemical_Elements!D74</f>
         <v>Hf</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K83" s="7" t="str">
+        <f>'130_Countries'!D74</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>73</v>
       </c>
@@ -4869,8 +6116,12 @@
         <f>Chemical_Elements!D75</f>
         <v>Ta</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K84" s="7" t="str">
+        <f>'130_Countries'!D75</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>74</v>
       </c>
@@ -4882,8 +6133,12 @@
         <f>Chemical_Elements!D76</f>
         <v>W</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K85" s="7" t="str">
+        <f>'130_Countries'!D76</f>
+        <v>Hong Kong SAR, China</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>75</v>
       </c>
@@ -4895,8 +6150,12 @@
         <f>Chemical_Elements!D77</f>
         <v>Re</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K86" s="7" t="str">
+        <f>'130_Countries'!D77</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>76</v>
       </c>
@@ -4908,8 +6167,12 @@
         <f>Chemical_Elements!D78</f>
         <v>Os</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K87" s="7" t="str">
+        <f>'130_Countries'!D78</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>77</v>
       </c>
@@ -4921,8 +6184,12 @@
         <f>Chemical_Elements!D79</f>
         <v>Ir</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K88" s="7" t="str">
+        <f>'130_Countries'!D79</f>
+        <v>Iran, Islamic Rep.</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>78</v>
       </c>
@@ -4934,8 +6201,12 @@
         <f>Chemical_Elements!D80</f>
         <v>Pt</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K89" s="7" t="str">
+        <f>'130_Countries'!D80</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>79</v>
       </c>
@@ -4947,8 +6218,12 @@
         <f>Chemical_Elements!D81</f>
         <v>Au</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K90" s="7" t="str">
+        <f>'130_Countries'!D81</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>80</v>
       </c>
@@ -4960,8 +6235,12 @@
         <f>Chemical_Elements!D82</f>
         <v>Hg</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K91" s="7" t="str">
+        <f>'130_Countries'!D82</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>81</v>
       </c>
@@ -4973,8 +6252,12 @@
         <f>Chemical_Elements!D83</f>
         <v>Tl</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K92" s="7" t="str">
+        <f>'130_Countries'!D83</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>82</v>
       </c>
@@ -4986,8 +6269,12 @@
         <f>Chemical_Elements!D84</f>
         <v>Pb</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K93" s="7" t="str">
+        <f>'130_Countries'!D84</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>83</v>
       </c>
@@ -4999,8 +6286,12 @@
         <f>Chemical_Elements!D85</f>
         <v>Bi</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K94" s="7" t="str">
+        <f>'130_Countries'!D85</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>84</v>
       </c>
@@ -5012,8 +6303,12 @@
         <f>Chemical_Elements!D86</f>
         <v>Po</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K95" s="7" t="str">
+        <f>'130_Countries'!D86</f>
+        <v>Kyrgyz Republic</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>85</v>
       </c>
@@ -5025,8 +6320,12 @@
         <f>Chemical_Elements!D87</f>
         <v>At</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K96" s="7" t="str">
+        <f>'130_Countries'!D87</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>86</v>
       </c>
@@ -5038,8 +6337,12 @@
         <f>Chemical_Elements!D88</f>
         <v>Rn</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K97" s="7" t="str">
+        <f>'130_Countries'!D88</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>87</v>
       </c>
@@ -5051,8 +6354,12 @@
         <f>Chemical_Elements!D89</f>
         <v>Fr</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K98" s="7" t="str">
+        <f>'130_Countries'!D89</f>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>88</v>
       </c>
@@ -5064,8 +6371,12 @@
         <f>Chemical_Elements!D90</f>
         <v>Ra</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K99" s="7" t="str">
+        <f>'130_Countries'!D90</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>89</v>
       </c>
@@ -5077,8 +6388,12 @@
         <f>Chemical_Elements!D91</f>
         <v>Ac</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K100" s="7" t="str">
+        <f>'130_Countries'!D91</f>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>90</v>
       </c>
@@ -5090,8 +6405,12 @@
         <f>Chemical_Elements!D92</f>
         <v>Th</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K101" s="7" t="str">
+        <f>'130_Countries'!D92</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>91</v>
       </c>
@@ -5103,8 +6422,12 @@
         <f>Chemical_Elements!D93</f>
         <v>Pa</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K102" s="7" t="str">
+        <f>'130_Countries'!D93</f>
+        <v>Palestine</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>92</v>
       </c>
@@ -5116,8 +6439,12 @@
         <f>Chemical_Elements!D94</f>
         <v>U</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K103" s="7" t="str">
+        <f>'130_Countries'!D94</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>93</v>
       </c>
@@ -5129,8 +6456,12 @@
         <f>Chemical_Elements!D95</f>
         <v>Np</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K104" s="7" t="str">
+        <f>'130_Countries'!D95</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>94</v>
       </c>
@@ -5142,8 +6473,12 @@
         <f>Chemical_Elements!D96</f>
         <v>Pu</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K105" s="7" t="str">
+        <f>'130_Countries'!D96</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>95</v>
       </c>
@@ -5155,8 +6490,12 @@
         <f>Chemical_Elements!D97</f>
         <v>Am</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K106" s="7" t="str">
+        <f>'130_Countries'!D97</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>96</v>
       </c>
@@ -5168,8 +6507,12 @@
         <f>Chemical_Elements!D98</f>
         <v>Cm</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K107" s="7" t="str">
+        <f>'130_Countries'!D98</f>
+        <v>South Korea</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>97</v>
       </c>
@@ -5181,8 +6524,12 @@
         <f>Chemical_Elements!D99</f>
         <v>Bk</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K108" s="7" t="str">
+        <f>'130_Countries'!D99</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>98</v>
       </c>
@@ -5194,8 +6541,12 @@
         <f>Chemical_Elements!D100</f>
         <v>Cf</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K109" s="7" t="str">
+        <f>'130_Countries'!D100</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>99</v>
       </c>
@@ -5207,8 +6558,12 @@
         <f>Chemical_Elements!D101</f>
         <v>Es</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K110" s="7" t="str">
+        <f>'130_Countries'!D101</f>
+        <v>Taiwan</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>100</v>
       </c>
@@ -5220,8 +6575,12 @@
         <f>Chemical_Elements!D102</f>
         <v>Fm</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K111" s="7" t="str">
+        <f>'130_Countries'!D102</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>101</v>
       </c>
@@ -5229,8 +6588,12 @@
         <f>Time_Discrete_Years!D103</f>
         <v>1801</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K112" s="7" t="str">
+        <f>'130_Countries'!D103</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>102</v>
       </c>
@@ -5238,8 +6601,12 @@
         <f>Time_Discrete_Years!D104</f>
         <v>1802</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K113" s="7" t="str">
+        <f>'130_Countries'!D104</f>
+        <v>Vietnam</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>103</v>
       </c>
@@ -5247,8 +6614,12 @@
         <f>Time_Discrete_Years!D105</f>
         <v>1803</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K114" s="7" t="str">
+        <f>'130_Countries'!D105</f>
+        <v>Yemen, Rep.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>104</v>
       </c>
@@ -5256,8 +6627,12 @@
         <f>Time_Discrete_Years!D106</f>
         <v>1804</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K115" s="7" t="str">
+        <f>'130_Countries'!D106</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>105</v>
       </c>
@@ -5265,8 +6640,12 @@
         <f>Time_Discrete_Years!D107</f>
         <v>1805</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K116" s="7" t="str">
+        <f>'130_Countries'!D107</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>106</v>
       </c>
@@ -5274,8 +6653,12 @@
         <f>Time_Discrete_Years!D108</f>
         <v>1806</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K117" s="7" t="str">
+        <f>'130_Countries'!D108</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>107</v>
       </c>
@@ -5283,8 +6666,12 @@
         <f>Time_Discrete_Years!D109</f>
         <v>1807</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K118" s="7" t="str">
+        <f>'130_Countries'!D109</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>108</v>
       </c>
@@ -5292,8 +6679,12 @@
         <f>Time_Discrete_Years!D110</f>
         <v>1808</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K119" s="7" t="str">
+        <f>'130_Countries'!D110</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>109</v>
       </c>
@@ -5301,8 +6692,12 @@
         <f>Time_Discrete_Years!D111</f>
         <v>1809</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K120" s="7" t="str">
+        <f>'130_Countries'!D111</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>110</v>
       </c>
@@ -5310,8 +6705,12 @@
         <f>Time_Discrete_Years!D112</f>
         <v>1810</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K121" s="7" t="str">
+        <f>'130_Countries'!D112</f>
+        <v>Congo, Dem. Rep.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>111</v>
       </c>
@@ -5319,8 +6718,12 @@
         <f>Time_Discrete_Years!D113</f>
         <v>1811</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K122" s="7" t="str">
+        <f>'130_Countries'!D113</f>
+        <v>Egypt, Arab Rep.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>112</v>
       </c>
@@ -5328,8 +6731,12 @@
         <f>Time_Discrete_Years!D114</f>
         <v>1812</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K123" s="7" t="str">
+        <f>'130_Countries'!D114</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>113</v>
       </c>
@@ -5337,8 +6744,12 @@
         <f>Time_Discrete_Years!D115</f>
         <v>1813</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K124" s="7" t="str">
+        <f>'130_Countries'!D115</f>
+        <v>Cote d'Ivoire</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>114</v>
       </c>
@@ -5346,8 +6757,12 @@
         <f>Time_Discrete_Years!D116</f>
         <v>1814</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K125" s="7" t="str">
+        <f>'130_Countries'!D116</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>115</v>
       </c>
@@ -5355,8 +6770,12 @@
         <f>Time_Discrete_Years!D117</f>
         <v>1815</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K126" s="7" t="str">
+        <f>'130_Countries'!D117</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>116</v>
       </c>
@@ -5364,8 +6783,12 @@
         <f>Time_Discrete_Years!D118</f>
         <v>1816</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K127" s="7" t="str">
+        <f>'130_Countries'!D118</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>117</v>
       </c>
@@ -5373,8 +6796,12 @@
         <f>Time_Discrete_Years!D119</f>
         <v>1817</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K128" s="7" t="str">
+        <f>'130_Countries'!D119</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>118</v>
       </c>
@@ -5382,8 +6809,12 @@
         <f>Time_Discrete_Years!D120</f>
         <v>1818</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K129" s="7" t="str">
+        <f>'130_Countries'!D120</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>119</v>
       </c>
@@ -5391,8 +6822,12 @@
         <f>Time_Discrete_Years!D121</f>
         <v>1819</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K130" s="7" t="str">
+        <f>'130_Countries'!D121</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>120</v>
       </c>
@@ -5400,8 +6835,12 @@
         <f>Time_Discrete_Years!D122</f>
         <v>1820</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K131" s="7" t="str">
+        <f>'130_Countries'!D122</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>121</v>
       </c>
@@ -5409,8 +6848,12 @@
         <f>Time_Discrete_Years!D123</f>
         <v>1821</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K132" s="7" t="str">
+        <f>'130_Countries'!D123</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>122</v>
       </c>
@@ -5418,8 +6861,12 @@
         <f>Time_Discrete_Years!D124</f>
         <v>1822</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K133" s="7" t="str">
+        <f>'130_Countries'!D124</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>123</v>
       </c>
@@ -5427,8 +6874,12 @@
         <f>Time_Discrete_Years!D125</f>
         <v>1823</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K134" s="7" t="str">
+        <f>'130_Countries'!D125</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>124</v>
       </c>
@@ -5436,8 +6887,12 @@
         <f>Time_Discrete_Years!D126</f>
         <v>1824</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K135" s="7" t="str">
+        <f>'130_Countries'!D126</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>125</v>
       </c>
@@ -5445,8 +6900,12 @@
         <f>Time_Discrete_Years!D127</f>
         <v>1825</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K136" s="7" t="str">
+        <f>'130_Countries'!D127</f>
+        <v>Tanzania</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>126</v>
       </c>
@@ -5454,8 +6913,12 @@
         <f>Time_Discrete_Years!D128</f>
         <v>1826</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K137" s="7" t="str">
+        <f>'130_Countries'!D128</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>127</v>
       </c>
@@ -5463,8 +6926,12 @@
         <f>Time_Discrete_Years!D129</f>
         <v>1827</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K138" s="7" t="str">
+        <f>'130_Countries'!D129</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>128</v>
       </c>
@@ -5472,8 +6939,12 @@
         <f>Time_Discrete_Years!D130</f>
         <v>1828</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K139" s="7" t="str">
+        <f>'130_Countries'!D130</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>129</v>
       </c>
@@ -5481,8 +6952,12 @@
         <f>Time_Discrete_Years!D131</f>
         <v>1829</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K140" s="7" t="str">
+        <f>'130_Countries'!D131</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>130</v>
       </c>
@@ -5491,7 +6966,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>131</v>
       </c>
@@ -5500,7 +6975,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>132</v>
       </c>
@@ -5509,7 +6984,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>133</v>
       </c>
@@ -16035,7 +17510,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17482,7 +18957,7 @@
   <dimension ref="A1:G1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27978,7 +29453,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29168,10 +30643,1233 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="62.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43461</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43461</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D97" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D98" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E98">
+        <v>96</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D99" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E99">
+        <v>97</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D100" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E100">
+        <v>98</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D101" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E101">
+        <v>99</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>611</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>612</v>
+      </c>
+      <c r="E103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>613</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>614</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>615</v>
+      </c>
+      <c r="E106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>616</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>617</v>
+      </c>
+      <c r="E108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>619</v>
+      </c>
+      <c r="E110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>620</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>621</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>622</v>
+      </c>
+      <c r="E113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>623</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>624</v>
+      </c>
+      <c r="E115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>625</v>
+      </c>
+      <c r="E116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>626</v>
+      </c>
+      <c r="E117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>627</v>
+      </c>
+      <c r="E118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>628</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>629</v>
+      </c>
+      <c r="E120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>630</v>
+      </c>
+      <c r="E121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>631</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>632</v>
+      </c>
+      <c r="E123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>633</v>
+      </c>
+      <c r="E124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>634</v>
+      </c>
+      <c r="E125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>635</v>
+      </c>
+      <c r="E126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>636</v>
+      </c>
+      <c r="E127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>637</v>
+      </c>
+      <c r="E128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>638</v>
+      </c>
+      <c r="E129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>639</v>
+      </c>
+      <c r="E130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>640</v>
+      </c>
+      <c r="E131">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29412,20 +32110,185 @@
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29644,6 +32507,12 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
@@ -29666,12 +32535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D31" sqref="D27:D31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29788,7 +32657,7 @@
         <v>43058</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -29802,7 +32671,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -29814,7 +32683,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -29823,7 +32692,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -29963,7 +32832,7 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -29971,7 +32840,7 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -29979,7 +32848,7 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -29987,7 +32856,7 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -29999,364 +32868,18 @@
       </c>
       <c r="E31">
         <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43028</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43028</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="D9" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24">
-        <v>22</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>